--- a/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 20211.xlsx
+++ b/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 20211.xlsx
@@ -521,19 +521,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>83.33</v>
+        <v>76.19</v>
       </c>
       <c r="H3">
         <v>9.1</v>
@@ -690,13 +690,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -850,19 +850,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>83.33</v>
+        <v>76.19</v>
       </c>
       <c r="H3">
         <v>9.1</v>
